--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +12,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -293,15 +296,27 @@
     <t>مايكونتري</t>
   </si>
   <si>
+    <t>دولة</t>
+  </si>
+  <si>
     <t>شمال</t>
   </si>
   <si>
+    <t>اتجاه</t>
+  </si>
+  <si>
     <t>الرباط ساليالقنيطرة</t>
   </si>
   <si>
+    <t>منطقة</t>
+  </si>
+  <si>
     <t>الرباط</t>
   </si>
   <si>
+    <t>مقاطعة</t>
+  </si>
+  <si>
     <t>القنيطرة</t>
   </si>
   <si>
@@ -351,30 +366,23 @@
   </si>
   <si>
     <t>تزنيت</t>
-  </si>
-  <si>
-    <t>دولة</t>
-  </si>
-  <si>
-    <t>اتجاه</t>
-  </si>
-  <si>
-    <t>منطقة</t>
-  </si>
-  <si>
-    <t>مقاطعة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -383,16 +391,353 @@
       <name val="Cambria"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -448,10 +793,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,54 +806,340 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,7 +1188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -592,7 +1223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -766,1697 +1397,1693 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1"/>
+    <col min="3" max="3" width="17.8545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8545454545455" customWidth="1"/>
+    <col min="5" max="5" width="23.4272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.2818181818182" customWidth="1"/>
+    <col min="8" max="8" width="8.42727272727273" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" hidden="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="4">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:8">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="H34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:8">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="4">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:8">
+      <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:8">
+      <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="4">
-        <v>3</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="B64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="4">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="4">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="4">
-        <v>3</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="4">
-        <v>3</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="4">
-        <v>3</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="4">
-        <v>3</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="4">
-        <v>3</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="4">
-        <v>3</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="4">
-        <v>3</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="F64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="4">
-        <v>3</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="4">
-        <v>3</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A64">
     <filterColumn colId="0">
-      <filters>
-        <filter val="ara"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="ara"/>
+      </customFilters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zone" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$H$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,54 +27,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hierarchy_level</t>
+  </si>
+  <si>
+    <t>hierarchy_level_name</t>
+  </si>
+  <si>
+    <t>hierarchy_path</t>
+  </si>
+  <si>
+    <t>parent_zone_code</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>hierarchy_level</t>
-  </si>
-  <si>
-    <t>hierarchy_level_name</t>
-  </si>
-  <si>
-    <t>hierarchy_path</t>
-  </si>
-  <si>
-    <t>parent_zone_code</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MotherLand</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>MotherLand</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
     <t>Vega</t>
   </si>
   <si>
-    <t>State</t>
+    <t>state</t>
   </si>
   <si>
     <t>ML/VA</t>
@@ -107,7 +104,7 @@
     <t>Murraya</t>
   </si>
   <si>
-    <t>City</t>
+    <t>city</t>
   </si>
   <si>
     <t>ML/VA/MA</t>
@@ -168,25 +165,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,53 +512,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -682,20 +620,34 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,150 +656,125 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,7 +827,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -910,7 +1051,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -955,9 +1096,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -990,9 +1131,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1167,311 +1308,322 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="3" max="3" width="17.8545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8545454545455" customWidth="1"/>
-    <col min="5" max="5" width="23.4272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.2818181818182" customWidth="1"/>
-    <col min="8" max="8" width="8.42727272727273" style="3"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I6"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I8"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I10"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H11">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65DF444-757C-47B9-827C-C424340D1A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B259B55-0F47-4752-8F0C-21A18B3CCF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>lang_code</t>
   </si>
@@ -102,15 +102,6 @@
     <t>CIV/LAGU/ABID</t>
   </si>
   <si>
-    <t>CIV/LAGU/ABID/ABID</t>
-  </si>
-  <si>
-    <t>CIV/LAGU/ABID/ABID/ABID</t>
-  </si>
-  <si>
-    <t>CIV/LAGU/ABID/ABID/ABID/ABID</t>
-  </si>
-  <si>
     <t>COCO</t>
   </si>
   <si>
@@ -127,6 +118,27 @@
   </si>
   <si>
     <t>ABOBO</t>
+  </si>
+  <si>
+    <t>ABID3</t>
+  </si>
+  <si>
+    <t>CIV/LAGU/ABID/ABID3</t>
+  </si>
+  <si>
+    <t>ABID4</t>
+  </si>
+  <si>
+    <t>CIV/LAGU/ABID/ABID3/ABID4</t>
+  </si>
+  <si>
+    <t>CIV/LAGU/ABID/ABID3/ABID4/COCO</t>
+  </si>
+  <si>
+    <t>CIV/LAGU/ABID/ABID3/ABID4/Plat</t>
+  </si>
+  <si>
+    <t>CIV/LAGU/ABID/ABID3/ABID4/ABOB</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -643,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -657,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -669,10 +681,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
@@ -683,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -695,10 +707,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
@@ -709,10 +721,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -721,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
@@ -735,10 +747,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -747,10 +759,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
